--- a/Week_14/Project_Code_Testcase_Template_v2.2_base.xlsx
+++ b/Week_14/Project_Code_Testcase_Template_v2.2_base.xlsx
@@ -1252,14 +1252,68 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1279,68 +1333,14 @@
     <xf numFmtId="49" fontId="21" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2793,7 +2793,7 @@
   </sheetPr>
   <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -2929,39 +2929,39 @@
       <c r="A7" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="156" t="s">
+      <c r="B7" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="156"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="129" t="s">
+      <c r="B8" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="130"/>
-      <c r="D8" s="129" t="s">
+      <c r="C8" s="133"/>
+      <c r="D8" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="130"/>
-      <c r="F8" s="129" t="s">
+      <c r="E8" s="133"/>
+      <c r="F8" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="130"/>
-      <c r="H8" s="157" t="s">
+      <c r="G8" s="133"/>
+      <c r="H8" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="157"/>
+      <c r="I8" s="131"/>
       <c r="J8" s="48" t="s">
         <v>32</v>
       </c>
@@ -2973,33 +2973,33 @@
       <c r="A9" s="50">
         <v>1</v>
       </c>
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="150" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="133"/>
-      <c r="D9" s="141" t="s">
+      <c r="C9" s="151"/>
+      <c r="D9" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="142"/>
+      <c r="E9" s="143"/>
       <c r="F9" s="51" t="s">
         <v>51</v>
       </c>
       <c r="G9" s="66"/>
-      <c r="H9" s="147" t="s">
+      <c r="H9" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="148"/>
+      <c r="I9" s="141"/>
       <c r="J9" s="50"/>
-      <c r="K9" s="151"/>
+      <c r="K9" s="137"/>
     </row>
     <row r="10" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="134"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="144"/>
+      <c r="B10" s="152"/>
+      <c r="C10" s="153"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="145"/>
       <c r="F10" s="52"/>
       <c r="G10" s="67"/>
       <c r="H10" s="47" t="s">
@@ -3011,16 +3011,16 @@
       <c r="J10" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="152"/>
+      <c r="K10" s="138"/>
     </row>
     <row r="11" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="134"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="144"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="145"/>
       <c r="F11" s="52"/>
       <c r="G11" s="67"/>
       <c r="H11" s="54" t="s">
@@ -3028,16 +3028,16 @@
       </c>
       <c r="I11" s="54"/>
       <c r="J11" s="50"/>
-      <c r="K11" s="152"/>
+      <c r="K11" s="138"/>
     </row>
     <row r="12" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="134"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="144"/>
+      <c r="B12" s="152"/>
+      <c r="C12" s="153"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="145"/>
       <c r="F12" s="52"/>
       <c r="G12" s="67"/>
       <c r="H12" s="47" t="s">
@@ -3047,16 +3047,16 @@
         <v>35</v>
       </c>
       <c r="J12" s="47"/>
-      <c r="K12" s="152"/>
+      <c r="K12" s="138"/>
     </row>
     <row r="13" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="55">
         <v>981</v>
       </c>
-      <c r="B13" s="136"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="146"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="147"/>
       <c r="F13" s="56"/>
       <c r="G13" s="68"/>
       <c r="H13" s="58">
@@ -3064,28 +3064,28 @@
       </c>
       <c r="I13" s="58"/>
       <c r="J13" s="59"/>
-      <c r="K13" s="153"/>
+      <c r="K13" s="139"/>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="139" t="s">
+      <c r="B14" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="140"/>
-      <c r="D14" s="139" t="s">
+      <c r="C14" s="136"/>
+      <c r="D14" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="140"/>
-      <c r="F14" s="139" t="s">
+      <c r="E14" s="136"/>
+      <c r="F14" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="140"/>
-      <c r="H14" s="138" t="s">
+      <c r="G14" s="136"/>
+      <c r="H14" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="138"/>
+      <c r="I14" s="158"/>
       <c r="J14" s="62" t="s">
         <v>32</v>
       </c>
@@ -3097,35 +3097,35 @@
       <c r="A15" s="50">
         <v>2</v>
       </c>
-      <c r="B15" s="132" t="s">
+      <c r="B15" s="150" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="133"/>
-      <c r="D15" s="141" t="s">
+      <c r="C15" s="151"/>
+      <c r="D15" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="142"/>
+      <c r="E15" s="143"/>
       <c r="F15" s="51" t="s">
         <v>51</v>
       </c>
       <c r="G15" s="66"/>
-      <c r="H15" s="149" t="s">
+      <c r="H15" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="150"/>
+      <c r="I15" s="149"/>
       <c r="J15" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="151"/>
+      <c r="K15" s="137"/>
     </row>
     <row r="16" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="134"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="144"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="145"/>
       <c r="F16" s="52"/>
       <c r="G16" s="67"/>
       <c r="H16" s="62" t="s">
@@ -3137,16 +3137,16 @@
       <c r="J16" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="K16" s="152"/>
+      <c r="K16" s="138"/>
     </row>
     <row r="17" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="134"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="144"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="145"/>
       <c r="F17" s="52"/>
       <c r="G17" s="67"/>
       <c r="H17" s="54" t="s">
@@ -3158,16 +3158,16 @@
       <c r="J17" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="K17" s="152"/>
+      <c r="K17" s="138"/>
     </row>
     <row r="18" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="134"/>
-      <c r="C18" s="135"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="144"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="153"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="145"/>
       <c r="F18" s="52"/>
       <c r="G18" s="67"/>
       <c r="H18" s="62" t="s">
@@ -3177,16 +3177,16 @@
         <v>35</v>
       </c>
       <c r="J18" s="62"/>
-      <c r="K18" s="152"/>
+      <c r="K18" s="138"/>
     </row>
     <row r="19" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="55">
         <v>921</v>
       </c>
-      <c r="B19" s="136"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="145"/>
-      <c r="E19" s="146"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="147"/>
       <c r="F19" s="56"/>
       <c r="G19" s="68"/>
       <c r="H19" s="54" t="s">
@@ -3196,62 +3196,62 @@
         <v>2</v>
       </c>
       <c r="J19" s="50"/>
-      <c r="K19" s="152"/>
+      <c r="K19" s="138"/>
     </row>
     <row r="20" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="158" t="s">
+      <c r="B20" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="158"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="156"/>
-      <c r="K20" s="156"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="129"/>
+      <c r="J20" s="129"/>
+      <c r="K20" s="129"/>
     </row>
     <row r="21" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="154" t="s">
+      <c r="B21" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="154"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="155"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="157"/>
+      <c r="K21" s="157"/>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="139" t="s">
+      <c r="B22" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="140"/>
-      <c r="D22" s="139" t="s">
+      <c r="C22" s="136"/>
+      <c r="D22" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="140"/>
-      <c r="F22" s="139" t="s">
+      <c r="E22" s="136"/>
+      <c r="F22" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="140"/>
-      <c r="H22" s="138" t="s">
+      <c r="G22" s="136"/>
+      <c r="H22" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="138"/>
+      <c r="I22" s="158"/>
       <c r="J22" s="62" t="s">
         <v>32</v>
       </c>
@@ -3264,35 +3264,35 @@
         <f>A15+1</f>
         <v>3</v>
       </c>
-      <c r="B23" s="132" t="s">
+      <c r="B23" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="133"/>
-      <c r="D23" s="141" t="s">
+      <c r="C23" s="151"/>
+      <c r="D23" s="142" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="142"/>
-      <c r="F23" s="141" t="s">
+      <c r="E23" s="143"/>
+      <c r="F23" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="142"/>
-      <c r="H23" s="147" t="s">
+      <c r="G23" s="143"/>
+      <c r="H23" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="148"/>
+      <c r="I23" s="141"/>
       <c r="J23" s="50"/>
-      <c r="K23" s="151"/>
+      <c r="K23" s="137"/>
     </row>
     <row r="24" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="134"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="143"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="144"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="145"/>
       <c r="H24" s="62" t="s">
         <v>36</v>
       </c>
@@ -3302,79 +3302,79 @@
       <c r="J24" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="K24" s="152"/>
+      <c r="K24" s="138"/>
     </row>
     <row r="25" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="134"/>
-      <c r="C25" s="135"/>
-      <c r="D25" s="143"/>
-      <c r="E25" s="144"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="144"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="145"/>
       <c r="H25" s="54" t="s">
         <v>43</v>
       </c>
       <c r="I25" s="54"/>
       <c r="J25" s="50"/>
-      <c r="K25" s="152"/>
+      <c r="K25" s="138"/>
     </row>
     <row r="26" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="134"/>
-      <c r="C26" s="135"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="144"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="145"/>
       <c r="H26" s="62" t="s">
         <v>39</v>
       </c>
       <c r="I26" s="62"/>
       <c r="J26" s="62"/>
-      <c r="K26" s="152"/>
+      <c r="K26" s="138"/>
     </row>
     <row r="27" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="55">
         <v>922</v>
       </c>
-      <c r="B27" s="136"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="146"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="147"/>
       <c r="H27" s="54" t="s">
         <v>42</v>
       </c>
       <c r="I27" s="54"/>
       <c r="J27" s="50"/>
-      <c r="K27" s="153"/>
+      <c r="K27" s="139"/>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="129" t="s">
+      <c r="B28" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="130"/>
-      <c r="D28" s="129" t="s">
+      <c r="C28" s="133"/>
+      <c r="D28" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="130"/>
-      <c r="F28" s="129" t="s">
+      <c r="E28" s="133"/>
+      <c r="F28" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="130"/>
-      <c r="H28" s="131" t="s">
+      <c r="G28" s="133"/>
+      <c r="H28" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="131"/>
+      <c r="I28" s="130"/>
       <c r="J28" s="47" t="s">
         <v>32</v>
       </c>
@@ -3386,37 +3386,37 @@
       <c r="A29" s="50">
         <v>4</v>
       </c>
-      <c r="B29" s="132" t="s">
+      <c r="B29" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="133"/>
-      <c r="D29" s="141" t="s">
+      <c r="C29" s="151"/>
+      <c r="D29" s="142" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="142"/>
-      <c r="F29" s="141" t="s">
+      <c r="E29" s="143"/>
+      <c r="F29" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="142"/>
-      <c r="H29" s="149" t="s">
+      <c r="G29" s="143"/>
+      <c r="H29" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="I29" s="150"/>
+      <c r="I29" s="149"/>
       <c r="J29" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="K29" s="151"/>
+      <c r="K29" s="137"/>
     </row>
     <row r="30" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="134"/>
-      <c r="C30" s="135"/>
-      <c r="D30" s="143"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="144"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="145"/>
       <c r="H30" s="47" t="s">
         <v>36</v>
       </c>
@@ -3426,18 +3426,18 @@
       <c r="J30" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="K30" s="152"/>
+      <c r="K30" s="138"/>
     </row>
     <row r="31" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="134"/>
-      <c r="C31" s="135"/>
-      <c r="D31" s="143"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="143"/>
-      <c r="G31" s="144"/>
+      <c r="B31" s="152"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="145"/>
       <c r="H31" s="54" t="s">
         <v>43</v>
       </c>
@@ -3447,18 +3447,18 @@
       <c r="J31" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="K31" s="152"/>
+      <c r="K31" s="138"/>
     </row>
     <row r="32" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="134"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="143"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="143"/>
-      <c r="G32" s="144"/>
+      <c r="B32" s="152"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="145"/>
       <c r="H32" s="47" t="s">
         <v>39</v>
       </c>
@@ -3466,18 +3466,18 @@
         <v>35</v>
       </c>
       <c r="J32" s="47"/>
-      <c r="K32" s="152"/>
+      <c r="K32" s="138"/>
     </row>
     <row r="33" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="55">
         <v>823</v>
       </c>
-      <c r="B33" s="136"/>
-      <c r="C33" s="137"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="146"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="147"/>
       <c r="H33" s="54" t="s">
         <v>42</v>
       </c>
@@ -3485,28 +3485,28 @@
         <v>2</v>
       </c>
       <c r="J33" s="50"/>
-      <c r="K33" s="153"/>
+      <c r="K33" s="139"/>
     </row>
     <row r="34" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="129" t="s">
+      <c r="B34" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="130"/>
-      <c r="D34" s="129" t="s">
+      <c r="C34" s="133"/>
+      <c r="D34" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="130"/>
-      <c r="F34" s="129" t="s">
+      <c r="E34" s="133"/>
+      <c r="F34" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="130"/>
-      <c r="H34" s="131" t="s">
+      <c r="G34" s="133"/>
+      <c r="H34" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="I34" s="131"/>
+      <c r="I34" s="130"/>
       <c r="J34" s="47" t="s">
         <v>32</v>
       </c>
@@ -3518,37 +3518,37 @@
       <c r="A35" s="50">
         <v>5</v>
       </c>
-      <c r="B35" s="132" t="s">
+      <c r="B35" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="133"/>
-      <c r="D35" s="141" t="s">
+      <c r="C35" s="151"/>
+      <c r="D35" s="142" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="142"/>
-      <c r="F35" s="141" t="s">
+      <c r="E35" s="143"/>
+      <c r="F35" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="G35" s="142"/>
-      <c r="H35" s="149" t="s">
+      <c r="G35" s="143"/>
+      <c r="H35" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="I35" s="150"/>
+      <c r="I35" s="149"/>
       <c r="J35" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="K35" s="151"/>
+      <c r="K35" s="137"/>
     </row>
     <row r="36" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="134"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="143"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="143"/>
-      <c r="G36" s="144"/>
+      <c r="B36" s="152"/>
+      <c r="C36" s="153"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="145"/>
       <c r="H36" s="47" t="s">
         <v>36</v>
       </c>
@@ -3558,18 +3558,18 @@
       <c r="J36" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="K36" s="152"/>
+      <c r="K36" s="138"/>
     </row>
     <row r="37" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="134"/>
-      <c r="C37" s="135"/>
-      <c r="D37" s="143"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="143"/>
-      <c r="G37" s="144"/>
+      <c r="B37" s="152"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="144"/>
+      <c r="G37" s="145"/>
       <c r="H37" s="54" t="s">
         <v>43</v>
       </c>
@@ -3579,18 +3579,18 @@
       <c r="J37" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="K37" s="152"/>
+      <c r="K37" s="138"/>
     </row>
     <row r="38" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="134"/>
-      <c r="C38" s="135"/>
-      <c r="D38" s="143"/>
-      <c r="E38" s="144"/>
-      <c r="F38" s="143"/>
-      <c r="G38" s="144"/>
+      <c r="B38" s="152"/>
+      <c r="C38" s="153"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="144"/>
+      <c r="G38" s="145"/>
       <c r="H38" s="47" t="s">
         <v>39</v>
       </c>
@@ -3598,18 +3598,18 @@
         <v>35</v>
       </c>
       <c r="J38" s="47"/>
-      <c r="K38" s="152"/>
+      <c r="K38" s="138"/>
     </row>
     <row r="39" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="55">
         <v>823</v>
       </c>
-      <c r="B39" s="136"/>
-      <c r="C39" s="137"/>
-      <c r="D39" s="145"/>
-      <c r="E39" s="146"/>
-      <c r="F39" s="145"/>
-      <c r="G39" s="146"/>
+      <c r="B39" s="154"/>
+      <c r="C39" s="155"/>
+      <c r="D39" s="146"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="146"/>
+      <c r="G39" s="147"/>
       <c r="H39" s="54" t="s">
         <v>42</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>2</v>
       </c>
       <c r="J39" s="50"/>
-      <c r="K39" s="153"/>
+      <c r="K39" s="139"/>
     </row>
     <row r="40" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="72"/>
@@ -4020,6 +4020,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B29:C33"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B35:C39"/>
+    <mergeCell ref="D29:E33"/>
+    <mergeCell ref="D35:E39"/>
+    <mergeCell ref="F35:G39"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D9:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B23:C27"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D15:E19"/>
+    <mergeCell ref="B15:C19"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="K35:K39"/>
+    <mergeCell ref="F29:G33"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H35:I35"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="H8:I8"/>
@@ -4036,36 +4066,6 @@
     <mergeCell ref="D23:E27"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F23:G27"/>
-    <mergeCell ref="K35:K39"/>
-    <mergeCell ref="F29:G33"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B35:C39"/>
-    <mergeCell ref="D29:E33"/>
-    <mergeCell ref="D35:E39"/>
-    <mergeCell ref="F35:G39"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="D9:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B23:C27"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D15:E19"/>
-    <mergeCell ref="B15:C19"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B29:C33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H35:I35">
